--- a/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Assembly processes" sheetId="6" r:id="rId1"/>
-    <sheet name="Processes-part" sheetId="1" r:id="rId2"/>
-    <sheet name="Materials" sheetId="3" r:id="rId3"/>
-    <sheet name="Fasteners" sheetId="4" r:id="rId4"/>
-    <sheet name="Tooling" sheetId="7" r:id="rId5"/>
+    <sheet name="Processes" sheetId="1" r:id="rId1"/>
+    <sheet name="Materials" sheetId="3" r:id="rId2"/>
+    <sheet name="Fasteners" sheetId="4" r:id="rId3"/>
+    <sheet name="Tooling" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
   <si>
     <t>Adjustement - Misc</t>
   </si>
@@ -255,9 +254,6 @@
     <t>Plan joint carter</t>
   </si>
   <si>
-    <t>Graisse tripods</t>
-  </si>
-  <si>
     <t>A confirmer avec Monoh</t>
   </si>
   <si>
@@ -544,6 +540,9 @@
   </si>
   <si>
     <t>A priori pour steering rack housing ?</t>
+  </si>
+  <si>
+    <t>Graisse tripods, colle pour biellettes direction, …</t>
   </si>
 </sst>
 </file>
@@ -585,7 +584,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -593,16 +592,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -628,6 +617,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -643,26 +642,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -962,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,13 +961,629 @@
         <v>71</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B72">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Non"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1001,641 +1596,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B72">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72">
-      <formula1>"Oui, Non"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -1659,37 +1619,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1697,7 +1657,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -1705,29 +1665,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -1735,18 +1695,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -1754,7 +1714,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -1762,7 +1722,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -1770,7 +1730,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -1778,7 +1738,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -1786,18 +1746,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -1805,29 +1765,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -1835,7 +1795,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -1843,18 +1803,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -1862,7 +1822,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1870,7 +1830,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -1878,18 +1838,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -1897,7 +1857,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -1905,7 +1865,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
@@ -1913,18 +1873,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
@@ -1932,7 +1892,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
@@ -1940,29 +1900,29 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -1970,7 +1930,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -1978,7 +1938,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1986,7 +1946,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -2002,7 +1962,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -2010,7 +1970,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -2018,7 +1978,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -2026,7 +1986,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
@@ -2034,7 +1994,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -2042,7 +2002,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
@@ -2050,7 +2010,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
@@ -2058,7 +2018,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
@@ -2066,7 +2026,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -2074,7 +2034,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
@@ -2082,7 +2042,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -2090,7 +2050,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -2098,122 +2058,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B72">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Non"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Oui"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72">
-      <formula1>"Oui, Non"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2234,11 +2082,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B72">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72">
+      <formula1>"Oui, Non"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2218,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -2274,7 +2234,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -2282,7 +2242,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -2290,18 +2250,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -2309,7 +2269,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2317,7 +2277,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>

--- a/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
   <si>
     <t>Adjustement - Misc</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Finition alésage</t>
   </si>
   <si>
-    <t>Tubes carbones ?</t>
-  </si>
-  <si>
     <t>Avant mettre revetement échapement collecteur echappement ?</t>
   </si>
   <si>
@@ -543,6 +540,12 @@
   </si>
   <si>
     <t>Graisse tripods, colle pour biellettes direction, …</t>
+  </si>
+  <si>
+    <t>Wire locking</t>
+  </si>
+  <si>
+    <t>Pour tube qui tiennent admission au châssis</t>
   </si>
 </sst>
 </file>
@@ -943,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1206,7 +1212,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,7 +1231,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1357,10 +1363,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,7 +1379,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1387,7 +1393,7 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1406,7 +1412,7 @@
         <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1417,7 +1423,7 @@
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1428,7 +1434,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1439,7 +1445,7 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1480,7 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,7 +1515,7 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,7 +1526,7 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,7 +1553,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,7 +1564,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,37 +1625,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -1665,29 +1671,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -1695,18 +1701,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -1746,18 +1752,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -1765,29 +1771,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -1795,7 +1801,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -1803,18 +1809,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -1838,18 +1844,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -1857,7 +1863,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
@@ -1873,18 +1879,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
@@ -1900,29 +1906,29 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
@@ -2010,7 +2016,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
@@ -2026,7 +2032,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2138,15 +2144,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -2218,7 +2224,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -2242,7 +2248,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -2250,18 +2256,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>

--- a/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -946,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1605,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
+++ b/CR - Cost Report/CBOM/fsg_choices_fasteners_processes_materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Processes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
   <si>
     <t>Adjustement - Misc</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>Welding fixure</t>
-  </si>
-  <si>
-    <t>A priori pour steering rack housing ?</t>
   </si>
   <si>
     <t>Graisse tripods, colle pour biellettes direction, …</t>
@@ -1148,7 +1145,7 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,7 +1228,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1382,7 +1379,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2202,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,7 +2211,7 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -2254,18 +2251,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>168</v>
       </c>
